--- a/PSDM Excel Template.xlsx
+++ b/PSDM Excel Template.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\PSDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Dropbox\PSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C651615-6917-4301-B14F-DFA4D95529A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97156CE3-4100-42CB-99FF-BEC3779F4520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{3BB4F2FB-1A24-4B64-B389-86D90888BBF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{3BB4F2FB-1A24-4B64-B389-86D90888BBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="大局掌握SA" sheetId="2" r:id="rId1"/>
     <sheet name="問題分析PA" sheetId="3" r:id="rId2"/>
     <sheet name="防範風險PPA" sheetId="4" r:id="rId3"/>
     <sheet name="決策分析DA" sheetId="5" r:id="rId4"/>
+    <sheet name="創意分析CA" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>H</t>
   </si>
@@ -180,12 +181,158 @@
   <si>
     <t>Plan B for Mitigation</t>
   </si>
+  <si>
+    <t>旅行用折疊衣架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不理想狀態：現行輕量折疊衣架承重差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加強版則體積大，攜帶不便。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心衝突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要改善：衣架收納體積 ↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會惡化：展開後承重量 ↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用功能</t>
+  </si>
+  <si>
+    <t>有害/不足功能</t>
+  </si>
+  <si>
+    <t>衣架肩臂</t>
+  </si>
+  <si>
+    <t>支撐衣物展開</t>
+  </si>
+  <si>
+    <t>折疊軸連接鬆動 → 承重低</t>
+  </si>
+  <si>
+    <t>中央樞紐</t>
+  </si>
+  <si>
+    <t>摺疊/展開</t>
+  </si>
+  <si>
+    <t>結構複雜、易磨耗</t>
+  </si>
+  <si>
+    <t>掛鉤</t>
+  </si>
+  <si>
+    <t>懸掛衣物</t>
+  </si>
+  <si>
+    <t>旋轉處易卡砂塵</t>
+  </si>
+  <si>
+    <t>使用者雙手/力氣</t>
+  </si>
+  <si>
+    <t>展開與收起動作</t>
+  </si>
+  <si>
+    <t>需要額外工具？</t>
+  </si>
+  <si>
+    <t>旅行包剩餘空間</t>
+  </si>
+  <si>
+    <t>空間有限，難收大型衣架</t>
+  </si>
+  <si>
+    <t>元件 Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可塞入薄物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 問題描述 — 明確痛點, 功能／有害分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以使用者情境錄影／照片／語錄蒐集</t>
+  </si>
+  <si>
+    <t>• Who　背包客、商務旅人。</t>
+  </si>
+  <si>
+    <t>• What　旅行時攜帶衣架。</t>
+  </si>
+  <si>
+    <t>• Where　機場→飯店→戶外營地。</t>
+  </si>
+  <si>
+    <t>• When　收納／晾掛瞬間。</t>
+  </si>
+  <si>
+    <t>• Extent　摺疊 ≤ 40 cm³；承重 ≥ 2 kg。</t>
+  </si>
+  <si>
+    <t>資源盤點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIZ 原則應用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案比較</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini-IFR 檢核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 物性變化</t>
+  </si>
+  <si>
+    <t>15 動態性</t>
+  </si>
+  <si>
+    <t>2 分割原則</t>
+  </si>
+  <si>
+    <t>24 中介原則</t>
+  </si>
+  <si>
+    <t>IFR 理想最終結果構思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內外部 衣物重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAMPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 Thinking Hats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,6 +348,61 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,11 +420,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -233,6 +450,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3671,8 +3912,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4819197" y="2127254"/>
-          <a:ext cx="2580821" cy="1272263"/>
+          <a:off x="4696733" y="2263326"/>
+          <a:ext cx="2481035" cy="1353906"/>
           <a:chOff x="1490" y="1673"/>
           <a:chExt cx="2476" cy="1062"/>
         </a:xfrm>
@@ -3727,7 +3968,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3954,7 +4195,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4212,7 +4453,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4439,7 +4680,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4697,7 +4938,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4924,7 +5165,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5182,7 +5423,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5409,7 +5650,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5667,7 +5908,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5894,7 +6135,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6095,7 +6336,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -6317,7 +6558,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6518,7 +6759,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -6740,7 +6981,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6941,7 +7182,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -7163,7 +7404,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7364,7 +7605,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -7586,7 +7827,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7787,7 +8028,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -8009,7 +8250,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8210,7 +8451,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -8432,7 +8673,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8633,7 +8874,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -8855,7 +9096,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9056,7 +9297,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -9278,7 +9519,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9479,7 +9720,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -9701,7 +9942,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9902,7 +10143,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -10124,7 +10365,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10325,7 +10566,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -10547,7 +10788,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10748,7 +10989,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -10970,7 +11211,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11171,7 +11412,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -11393,7 +11634,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11594,7 +11835,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -11816,7 +12057,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12017,7 +12258,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -12239,7 +12480,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12440,7 +12681,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -12662,7 +12903,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12863,7 +13104,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -13085,7 +13326,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13286,7 +13527,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -13508,7 +13749,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13709,7 +13950,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -13931,7 +14172,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14132,7 +14373,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -14354,7 +14595,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14555,7 +14796,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -14777,7 +15018,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14978,7 +15219,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -15200,7 +15441,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15401,7 +15642,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -15623,7 +15864,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15824,7 +16065,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -16046,7 +16287,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -16247,7 +16488,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -16469,7 +16710,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -16670,7 +16911,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -16892,7 +17133,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -17093,7 +17334,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -17315,7 +17556,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -17516,7 +17757,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -17738,7 +17979,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -17939,7 +18180,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+                <a14:hiddenFill xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
                   <a:noFill/>
                 </a14:hiddenFill>
               </a:ext>
@@ -18161,7 +18402,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+                <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -22107,6 +22348,917 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBC1947-F7B3-49BA-B36A-9D4720842819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1004455" y="207818"/>
+          <a:ext cx="1585025" cy="713209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-TW"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>收集洞見</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390639</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265545</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EC6039-2830-44B4-9975-600E71C16405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4974184" y="219364"/>
+          <a:ext cx="1710634" cy="713209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-TW"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>運用場景</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>169188</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7F23F2-D534-4D29-896D-D30F99310A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10664006" y="213102"/>
+          <a:ext cx="3952539" cy="756716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-TW"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>連接演化</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>458411</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>202046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>110917</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A2162E-D2E8-4C67-84CE-8A331DB95442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16090956" y="202046"/>
+          <a:ext cx="1488234" cy="747845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-TW"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>創新方案</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>981364</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形: 圓角 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37621431-D9D6-44C7-AF4B-DCED3395078B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1330614"/>
+          <a:ext cx="7400636" cy="3521941"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>192231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形: 圓角 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4C923F-FAFD-4F60-A5B2-AE434844AC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3913909" y="1289049"/>
+          <a:ext cx="10945090" cy="3533487"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542636</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>606960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形: 圓角 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57464D0C-9BB7-4D46-B169-AA445CF1A352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14708909" y="1357992"/>
+          <a:ext cx="4347687" cy="3732481"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>265545</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>218950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014E1FCA-7657-21B8-83A6-9A19FF7D61FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15655636" y="2632364"/>
+          <a:ext cx="3012951" cy="2010402"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
@@ -22406,17 +23558,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9F6829-6F9D-4041-B1A5-B7CF6B269B2F}">
   <dimension ref="A8:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.06640625" customWidth="1"/>
-    <col min="13" max="13" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -22442,7 +23594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <v>1.2</v>
       </c>
@@ -22459,11 +23611,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -22477,7 +23629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="C12" s="1">
         <v>2.2000000000000002</v>
@@ -22492,7 +23644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -22510,18 +23662,18 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.73046875" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -22537,7 +23689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -22555,7 +23707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -22570,7 +23722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -22585,44 +23737,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K20" t="s">
         <v>29</v>
       </c>
@@ -22630,12 +23782,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F22" t="s">
         <v>23</v>
       </c>
@@ -22643,22 +23795,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
         <v>29</v>
       </c>
@@ -22675,21 +23827,21 @@
   <dimension ref="A8:P14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.06640625" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" customWidth="1"/>
-    <col min="7" max="7" width="5.59765625" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" customWidth="1"/>
-    <col min="10" max="10" width="6.9296875" customWidth="1"/>
-    <col min="12" max="12" width="10.73046875" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -22717,24 +23869,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="P9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -22762,7 +23914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P14" t="s">
         <v>37</v>
       </c>
@@ -22779,16 +23931,16 @@
   <dimension ref="A7:R22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.06640625" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G7" t="s">
         <v>39</v>
       </c>
@@ -22802,7 +23954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -22823,7 +23975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -22844,7 +23996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -22871,7 +24023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -22892,7 +24044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -22915,13 +24067,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1"/>
       <c r="R13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G22">
         <f>$E$8*G8+$E$9*G9+$E$10*G10+$E$11*G11+$E$12*G12</f>
         <v>244</v>
@@ -22940,4 +24092,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B7A79-5191-4669-8F84-EA239378D384}">
+  <dimension ref="A8:W24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.36328125" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:23" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" ht="20" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" ht="20" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" ht="20" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="12:14" ht="18" x14ac:dyDescent="0.4">
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="12:14" ht="18" x14ac:dyDescent="0.4">
+      <c r="M22" s="10"/>
+    </row>
+    <row r="24" spans="12:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="L24" s="10"/>
+      <c r="N24" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>